--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccountVisitor.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccountVisitor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>TCID</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>reviewstatus</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -701,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BC3" sqref="BC3"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +739,10 @@
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="54" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="55" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,14 +905,17 @@
       <c r="BB1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" t="s">
         <v>8</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1061,7 @@
         <v>85</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
@@ -1059,12 +1074,15 @@
       <c r="BB2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BC2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD2" t="s">
         <v>9</v>
       </c>
-      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1223,10 +1241,13 @@
       <c r="BB3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD3" t="s">
         <v>104</v>
       </c>
-      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
